--- a/data/case1/2/P1_3.xlsx
+++ b/data/case1/2/P1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.36975038151169315</v>
+        <v>0.36502413272566514</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999992923898162</v>
+        <v>-0.0099999988234600323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0089999992759324243</v>
+        <v>-0.0089999988014604071</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.01199999979779065</v>
+        <v>-0.011999999710962328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999992885728659</v>
+        <v>-0.0059999988140386762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.005999999269910461</v>
+        <v>0.0049698170543557296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999132508606</v>
+        <v>-0.019999998578411393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999122970458</v>
+        <v>-0.019999998570308541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999992461499119</v>
+        <v>-0.0059999987583392311</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999992362804733</v>
+        <v>-0.0059999987527277199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999992494574315</v>
+        <v>-0.0044999987733049807</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999992327317564</v>
+        <v>-0.013225280730845057</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999992230466148</v>
+        <v>-0.0059999987525580778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999162760844</v>
+        <v>-0.01199999866971968</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999992185248985</v>
+        <v>-0.0059999987556906831</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.0034204596847355884</v>
+        <v>-0.033571758459320034</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.005999999213713636</v>
+        <v>-0.0059999987810686051</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999991841720473</v>
+        <v>0.063933829276870746</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.0089999993013134549</v>
+        <v>-0.0089999988358688832</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999992949802987</v>
+        <v>-0.039964095017907653</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0089999992940299478</v>
+        <v>-0.0089999988113147467</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.008999999293373584</v>
+        <v>-0.0089999988104612072</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.079367784090832671</v>
+        <v>-0.0089999987916504764</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999998937201966</v>
+        <v>-0.041999998314804721</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999998931356863</v>
+        <v>-0.041999998306384789</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0059999992693775539</v>
+        <v>-0.0059999987727827886</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999992688624104</v>
+        <v>-0.0059999987665841914</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999992674608649</v>
+        <v>-0.0059999987411254452</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.061124442617504826</v>
+        <v>-0.011999998640931153</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999127996215</v>
+        <v>-0.019999998522131524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.0149999991687082</v>
+        <v>-0.014999998580520923</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.020999999109971412</v>
+        <v>-0.020999998495190297</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.0059999992534836011</v>
+        <v>-0.0059999987041052805</v>
       </c>
     </row>
   </sheetData>
